--- a/pred_ohlcv/54_21/2020-01-22 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 WET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-11343678.37472757</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-11690685.00562757</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-11814119.65342757</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-11851250.21072757</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-11912152.36432757</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-11912152.36432757</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-11863781.56362757</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-11970454.82042757</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-11981450.15242757</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-11936122.01082757</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-11936122.01082757</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-11935992.01082757</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-11937352.01082757</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-12649028.79002757</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-13400108.64722757</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-13398784.64722757</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-14699239.61062757</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-14699239.61062757</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-14735995.15822757</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-14434143.12365615</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-14434143.12365615</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-14413310.60735615</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-14312832.27135615</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-14376873.58295615</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-14837366.63425615</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-14837243.63425615</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-14837243.63425615</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-14841486.49515615</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-14837153.49515615</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-14837353.49515615</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-14837020.49515615</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-14760301.29645615</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-14672121.84842757</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-14672121.84842757</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-14698117.59182757</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-15736286.46252757</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-15723794.10022757</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-15794724.52152757</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-15771761.07972757</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-15331545.91152757</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-15702834.12582757</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-15949507.60532757</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-15901250.32212757</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-15910799.85492757</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-17296349.76512757</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-17288786.26572757</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-17326264.26572757</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-17215392.24452757</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-17326264.22332757</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-17316264.22332757</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-17215216.38352757</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-17299274.15832757</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-17407456.74002757</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-17407456.74002757</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-17408055.47022757</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-17383159.66064847</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-17383351.93544846</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-17421409.46952284</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-17424125.71682284</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-17544265.43002284</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-17614263.37472284</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-16997226.91797004</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-17133109.47487004</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 WET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-11343678.37472757</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-11690685.00562757</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-11814119.65342757</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-11851250.21072757</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-11912152.36432757</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-11912152.36432757</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-11863781.56362757</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-11970454.82042757</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-11981450.15242757</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-11936122.01082757</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-11936122.01082757</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-11935992.01082757</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-11937352.01082757</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-12666676.68972757</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-12649028.79002757</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-12649028.79002757</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-13400108.64722757</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-13398784.64722757</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-14699239.61062757</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-14699239.61062757</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-14699061.05482757</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-14468587.12365615</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-14468587.12365615</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-14413310.60735615</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-14312832.27135615</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-14376873.58295615</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-14837366.63425615</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-14837243.63425615</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-14837243.63425615</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-15723794.10022757</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-15794724.52152757</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-15771761.07972757</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-15331545.91152757</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-15702834.12582757</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-15949507.60532757</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-15901250.32212757</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-15910799.85492757</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-17296349.76512757</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-17294483.91882757</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-17288786.26572757</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-17326264.26572757</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-17215392.24452757</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-17326264.22332757</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-17316264.22332757</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-17215216.38352757</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-17299274.15832757</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-17407456.74002757</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-17408055.47022757</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-17394375.98582284</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-17421409.46952284</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-17424125.71682284</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-17521993.95442284</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
